--- a/extras/sample-form/Sample form - Twilio call field plug-in.xlsx
+++ b/extras/sample-form/Sample form - Twilio call field plug-in.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acooper/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acooper/Google Drive/GitHub/twilio-call/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F9703-374B-3148-A9AE-238BC979B440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0802E7-DCB4-6841-B1C5-E1344591FB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6080" yWindow="1840" windowWidth="28800" windowHeight="16720" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2717,53 +2717,53 @@
     <t>Must begin with country code (like +1 for U.S.)</t>
   </si>
   <si>
-    <t>custom-twilio-call(fromNumber=${your_number},toNumber=${number_to_call},twilioNumber=${twilio_number},accountSID=${twilio_sid},authToken=${twilio_auth},record=${record_call},displayNumber=${display_number})</t>
-  </si>
-  <si>
     <t>intro</t>
   </si>
   <si>
-    <t>&lt;p&gt;Welcome to this SurveyCTO sample form on the Twilio field plug-in!&lt;/p&gt;
+    <t>Stores the call status. Can be updated by tapping on the status button. Field plug-in metadata position 0.</t>
+  </si>
+  <si>
+    <t>Twilio URL to the record of the call. Field plug-in metadata position 2.</t>
+  </si>
+  <si>
+    <t>Twilio URL to the recording of the call (if enabled). Field plug-in metadata position 3.</t>
+  </si>
+  <si>
+    <t>recording_consent</t>
+  </si>
+  <si>
+    <t>Does the respondent give consent for the call to be recorded?</t>
+  </si>
+  <si>
+    <t>${record_call} = 1</t>
+  </si>
+  <si>
+    <t>${recording_consent} = 1</t>
+  </si>
+  <si>
+    <t>Sample form - Twilio call field plug-in</t>
+  </si>
+  <si>
+    <t>sample_form_twilio_call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twilio SID number for the call. Field plug-in metadata position 1. </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welcome to this SurveyCTO sample form on the Twilio-call field plug-in!&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;For more relevant information, see these links:&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;ul&gt;
-&lt;li&gt;&lt;a href="https://github.com/surveycto/twilio-call/blob/master/README.md" target="_blank" rel="noopener"&gt;Twilio field plug-in documentation&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://github.com/surveycto/twilio-call/blob/master/README.md" target="_blank" rel="noopener"&gt;Twilio-call field plug-in documentation&lt;/a&gt;.&lt;/li&gt;
 &lt;li&gt;&lt;a href="https://support.surveycto.com/hc/en-us/articles/360044958494" target="_blank" rel="noopener"&gt;Starter kit guide to computer-assisted telephone interviewing (CATI)&lt;/a&gt;.&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Stores the call status. Can be updated by tapping on the status button. Field plug-in metadata position 0.</t>
-  </si>
-  <si>
-    <t>Twilio URL to the record of the call. Field plug-in metadata position 2.</t>
-  </si>
-  <si>
-    <t>Twilio URL to the recording of the call (if enabled). Field plug-in metadata position 3.</t>
-  </si>
-  <si>
-    <t>recording_consent</t>
-  </si>
-  <si>
-    <t>Does the respondent give consent for the call to be recorded?</t>
-  </si>
-  <si>
-    <t>${record_call} = 1</t>
-  </si>
-  <si>
-    <t>If consent is withheld, the URL for call reording is not relevant, and so there's easy link to find that recording. The recording still takes place, however.</t>
-  </si>
-  <si>
-    <t>${recording_consent} = 1</t>
-  </si>
-  <si>
-    <t>Sample form - Twilio call field plug-in</t>
-  </si>
-  <si>
-    <t>sample_form_twilio_call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twilio SID number for the call. Field plug-in metadata position 1. </t>
+    <t>If consent is withheld, the URL for call recording is not relevant, and so there's no easy link to find that recording. The recording still takes place, however.</t>
+  </si>
+  <si>
+    <t>custom-twilio-call(from_number=${your_number},to_number=${number_to_call},twilio_number=${twilio_number},account_sid=${twilio_sid},auth_token=${twilio_auth},record=${record_call},display_number=${display_number})</t>
   </si>
 </sst>
 </file>
@@ -4939,8 +4939,8 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5196,15 +5196,15 @@
         <v>33</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="54"/>
       <c r="F11" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5416,7 +5416,7 @@
         <v>381</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="K20" t="s">
         <v>374</v>
@@ -5430,17 +5430,17 @@
         <v>297</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F21" s="21"/>
       <c r="I21" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -5456,7 +5456,7 @@
         <v>401</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>359</v>
@@ -5476,7 +5476,7 @@
         <v>403</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I23" t="s">
         <v>359</v>
@@ -5496,7 +5496,7 @@
         <v>405</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N24" t="s">
         <v>406</v>
@@ -5510,10 +5510,10 @@
         <v>407</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N25" t="s">
         <v>408</v>
@@ -5836,14 +5836,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2008171909</v>
+        <v>2008181410</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
